--- a/nodes_source_analyses/energy/energy_hydrogen_steam_methane_reformer.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_steam_methane_reformer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2483C2-F8F9-6246-A1A0-B7C6092400C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E220464-61B3-2A4B-8AD2-F2465787E999}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="176">
   <si>
     <t>Source</t>
   </si>
@@ -649,9 +649,6 @@
   </si>
   <si>
     <t xml:space="preserve">MW </t>
-  </si>
-  <si>
-    <t>In table 15 an efficiency of 77% is used for the SMR plant (without CCS), so looking at table 9 the capacity should be around 225 MW</t>
   </si>
   <si>
     <t>NOT USED</t>
@@ -5388,7 +5385,7 @@
   <dimension ref="A1:Q263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -5919,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K33" s="71"/>
       <c r="L33" s="71"/>
@@ -6010,13 +6007,11 @@
       <c r="B41" s="70"/>
       <c r="C41" s="71"/>
       <c r="E41" s="64">
+        <f>(150+300)/2</f>
         <v>225</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>173</v>
-      </c>
-      <c r="G41" s="64" t="s">
-        <v>174</v>
       </c>
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
@@ -6564,7 +6559,7 @@
     <row r="112" spans="2:17">
       <c r="B112" s="70"/>
       <c r="C112" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="2:7">
@@ -6760,7 +6755,7 @@
     <row r="157" spans="2:7">
       <c r="B157" s="70"/>
       <c r="C157" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="2:7">
@@ -6954,7 +6949,7 @@
       <c r="A190" s="161"/>
       <c r="B190" s="177"/>
       <c r="C190" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:7">

--- a/nodes_source_analyses/energy/energy_hydrogen_steam_methane_reformer.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_steam_methane_reformer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E220464-61B3-2A4B-8AD2-F2465787E999}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B10A17-7EF7-C84A-AB45-E636761EB406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26800" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,10 +43,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
   <si>
     <t>Source</t>
   </si>
@@ -655,6 +661,9 @@
   </si>
   <si>
     <t>Fixed O&amp;M / year</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1718,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1994,6 +2003,7 @@
     <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="443">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3333,12 +3343,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="29" customFormat="1">
@@ -3512,22 +3522,22 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="1" max="2" width="3.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3956,14 +3966,16 @@
         <v>76</v>
       </c>
       <c r="E28" s="113">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F28" s="105"/>
       <c r="G28" s="105" t="s">
         <v>77</v>
       </c>
       <c r="H28" s="105"/>
-      <c r="I28" s="108"/>
+      <c r="I28" s="196" t="s">
+        <v>176</v>
+      </c>
       <c r="J28" s="112"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1">
@@ -4228,31 +4240,31 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="42" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="2.5" style="42" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="42" customWidth="1"/>
-    <col min="14" max="14" width="2.5" style="42" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="2.1640625" style="42" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" style="42" customWidth="1"/>
-    <col min="19" max="19" width="23.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" style="42" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="42" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="42" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="42" customWidth="1"/>
+    <col min="16" max="16" width="2.140625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="42" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="42" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="42" customWidth="1"/>
     <col min="20" max="20" width="11" style="42" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="42" customWidth="1"/>
-    <col min="22" max="22" width="22.5" style="42" customWidth="1"/>
-    <col min="23" max="16384" width="10.6640625" style="42"/>
+    <col min="21" max="21" width="2.42578125" style="42" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="42" customWidth="1"/>
+    <col min="23" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="17" thickBot="1"/>
@@ -5083,18 +5095,18 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="56" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="56" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="56" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="60" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="60" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="56" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="56"/>
+    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="56" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="60" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="60" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="56" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5384,22 +5396,22 @@
   </sheetPr>
   <dimension ref="A1:Q263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="64" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="64" customWidth="1"/>
     <col min="4" max="4" width="4" style="64" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="64" customWidth="1"/>
-    <col min="7" max="13" width="10.6640625" style="64"/>
-    <col min="14" max="14" width="15.6640625" style="64" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="64"/>
-    <col min="16" max="16" width="54.6640625" style="64" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="64"/>
+    <col min="5" max="5" width="13.140625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="64" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="64"/>
+    <col min="14" max="14" width="15.7109375" style="64" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="64"/>
+    <col min="16" max="16" width="54.7109375" style="64" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>
